--- a/academycity/data/avic/datasets/excel/conference/output/GDP/2018_Ratio_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/2018_Ratio_o.xlsx
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C140" t="n">
